--- a/Datasets/All variables.xlsx
+++ b/Datasets/All variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="57">
   <si>
     <t>GDP per capita, PPP (constant 2011 international $)</t>
   </si>
@@ -73,6 +73,9 @@
     <t>Trademark applications, total</t>
   </si>
   <si>
+    <t>Unemployment, total (% of total labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Long definition</t>
   </si>
   <si>
@@ -88,13 +91,16 @@
     <t>Labor force with secondary education (% of total)</t>
   </si>
   <si>
-    <t>Trademark applications filed are applications to register a trademark with a national or regional Intellectual Property (IP) office. A trademark is a distinctive sign which identifies certain goods or services as those produced or provided by a specific person or enterprise. A trademark provides protection to the owner of the mark by ensuring the exclusive right to use it to identify goods or services, or to authorize another to use it in return for payment. The period of protection varies, but a trademark can be renewed indefinitely beyond the time limit on payment of additional fees.</t>
-  </si>
-  <si>
     <t>General government final consumption expenditure (% of GDP)</t>
   </si>
   <si>
     <t>Latin America &amp; Caribbean (all income levels)</t>
+  </si>
+  <si>
+    <t>Trademark applications filed are applications to register a trademark with a national or regional Intellectual Property (IP) office. A trademark is a distinctive sign which identifies certain goods or services as those produced or provided by a specific person or enterprise. A trademark provides protection to the owner of the mark by ensuring the exclusive right to use it to identify goods or services, or to authorize another to use it in return for payment. The period of protection varies, but a trademark can be renewed indefinitely beyond the time limit on payment of additional fees.</t>
+  </si>
+  <si>
+    <t>SL.UEM.TOTL.ZS</t>
   </si>
   <si>
     <t>East Asia &amp; Pacific (all income levels)</t>
@@ -158,6 +164,9 @@
   </si>
   <si>
     <t>Data from database: World Development Indicators</t>
+  </si>
+  <si>
+    <t>Unemployment refers to the share of the labor force that is without work but available for and seeking employment.</t>
   </si>
   <si>
     <t>World</t>
@@ -238,9 +247,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M441" totalsRowShown="0">
-  <autoFilter ref="A1:M441"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N441" totalsRowShown="0">
+  <autoFilter ref="A1:N441"/>
+  <tableColumns count="14">
     <tableColumn id="1" name="Country Name"/>
     <tableColumn id="2" name="Time"/>
     <tableColumn id="3" name="Scientific and technical journal articles"/>
@@ -254,6 +263,7 @@
     <tableColumn id="11" name="GDP per capita, PPP (constant 2011 international $)"/>
     <tableColumn id="12" name="Labor force with secondary education (% of total)"/>
     <tableColumn id="13" name="Labor force with tertiary education (% of total)"/>
+    <tableColumn id="14" name="Unemployment, total (% of total labor force) (modeled ILO estimate)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -544,25 +554,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M446"/>
+  <dimension ref="A1:N446"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="16.7109375" customWidth="1"/>
+    <col min="3" max="14" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -571,10 +581,10 @@
         <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
         <v>8</v>
@@ -586,21 +596,24 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
       <c r="L1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>1960</v>
@@ -609,9 +622,9 @@
         <v>11.969999543898156</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>1961</v>
@@ -623,9 +636,9 @@
         <v>6.7741527438069937</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>1962</v>
@@ -637,9 +650,9 @@
         <v>6.5580440780652793</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>1963</v>
@@ -651,9 +664,9 @@
         <v>8.0119268814971463</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>1964</v>
@@ -665,9 +678,9 @@
         <v>10.839262535653788</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>1965</v>
@@ -679,9 +692,9 @@
         <v>6.4118593577279483</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>1966</v>
@@ -693,9 +706,9 @@
         <v>9.2883426139234189</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>1967</v>
@@ -707,9 +720,9 @@
         <v>8.9458452566201885</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>1968</v>
@@ -721,9 +734,9 @@
         <v>10.74405863935948</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>1969</v>
@@ -735,9 +748,9 @@
         <v>11.774793632550058</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>1970</v>
@@ -758,9 +771,9 @@
         <v>1.8244376523266936</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>1971</v>
@@ -781,9 +794,9 @@
         <v>5.1572567259142232</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>1972</v>
@@ -804,9 +817,9 @@
         <v>7.6650214296006851</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>1973</v>
@@ -827,9 +840,9 @@
         <v>7.9016773369307174</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>1974</v>
@@ -852,7 +865,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>1975</v>
@@ -875,7 +888,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>1976</v>
@@ -898,7 +911,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>1977</v>
@@ -921,7 +934,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>1978</v>
@@ -944,7 +957,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>1979</v>
@@ -967,7 +980,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>1980</v>
@@ -996,7 +1009,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>1981</v>
@@ -1028,7 +1041,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>1982</v>
@@ -1057,7 +1070,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>1983</v>
@@ -1086,7 +1099,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>1984</v>
@@ -1115,7 +1128,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>1985</v>
@@ -1147,7 +1160,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>1986</v>
@@ -1179,7 +1192,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>1987</v>
@@ -1211,7 +1224,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B30">
         <v>1988</v>
@@ -1243,7 +1256,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B31">
         <v>1989</v>
@@ -1275,7 +1288,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B32">
         <v>1990</v>
@@ -1308,9 +1321,9 @@
         <v>4827.4097460830271</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B33">
         <v>1991</v>
@@ -1342,10 +1355,13 @@
       <c r="K33">
         <v>5025.6714333936143</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N33">
+        <v>4.6681847834425048</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B34">
         <v>1992</v>
@@ -1377,10 +1393,13 @@
       <c r="K34">
         <v>5228.5027422801195</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N34">
+        <v>4.0368163328210658</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B35">
         <v>1993</v>
@@ -1412,10 +1431,13 @@
       <c r="K35">
         <v>5457.8968906592681</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N35">
+        <v>4.1451702253413263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B36">
         <v>1994</v>
@@ -1447,10 +1469,13 @@
       <c r="K36">
         <v>5730.8162805534976</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N36">
+        <v>4.16892943099199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B37">
         <v>1995</v>
@@ -1482,10 +1507,13 @@
       <c r="K37">
         <v>6019.1279699730985</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N37">
+        <v>4.196839188221797</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B38">
         <v>1996</v>
@@ -1517,10 +1545,13 @@
       <c r="K38">
         <v>6312.4538393446483</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N38">
+        <v>4.2951248863806795</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B39">
         <v>1997</v>
@@ -1552,10 +1583,13 @@
       <c r="K39">
         <v>6544.0041196943666</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N39">
+        <v>4.3762814046748009</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B40">
         <v>1998</v>
@@ -1587,10 +1621,13 @@
       <c r="K40">
         <v>6442.9382113717547</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <v>4.7680053021908133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B41">
         <v>1999</v>
@@ -1622,10 +1659,13 @@
       <c r="K41">
         <v>6643.1241890399497</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N41">
+        <v>4.8371726129801189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B42">
         <v>2000</v>
@@ -1657,10 +1697,13 @@
       <c r="K42">
         <v>6952.5742253861608</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N42">
+        <v>4.6665987061607215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B43">
         <v>2001</v>
@@ -1692,10 +1735,13 @@
       <c r="K43">
         <v>7145.9524207630329</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N43">
+        <v>4.8852430017894806</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B44">
         <v>2002</v>
@@ -1727,10 +1773,13 @@
       <c r="K44">
         <v>7446.169928794553</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <v>4.8820295769538333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B45">
         <v>2003</v>
@@ -1762,10 +1811,13 @@
       <c r="K45">
         <v>7804.646567750633</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <v>4.8409051786350039</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B46">
         <v>2004</v>
@@ -1797,10 +1849,13 @@
       <c r="K46">
         <v>8247.2205393711592</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N46">
+        <v>4.8479108564413353</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B47">
         <v>2005</v>
@@ -1832,10 +1887,13 @@
       <c r="K47">
         <v>8713.128608271194</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N47">
+        <v>4.6710001926044047</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B48">
         <v>2006</v>
@@ -1867,10 +1925,13 @@
       <c r="K48">
         <v>9286.1369780270998</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N48">
+        <v>4.5055406815485783</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B49">
         <v>2007</v>
@@ -1902,10 +1963,13 @@
       <c r="K49">
         <v>10002.270777970405</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N49">
+        <v>4.2206045070076224</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B50">
         <v>2008</v>
@@ -1937,10 +2001,13 @@
       <c r="K50">
         <v>10451.831681173771</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <v>4.5581016103877987</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B51">
         <v>2009</v>
@@ -1972,10 +2039,13 @@
       <c r="K51">
         <v>10738.777656231983</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N51">
+        <v>4.6313620617390487</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B52">
         <v>2010</v>
@@ -2007,10 +2077,13 @@
       <c r="K52">
         <v>11542.941575278539</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N52">
+        <v>4.3953705907258245</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B53">
         <v>2011</v>
@@ -2042,10 +2115,13 @@
       <c r="K53">
         <v>12147.748679870248</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N53">
+        <v>4.3224484391025504</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B54">
         <v>2012</v>
@@ -2074,10 +2150,13 @@
       <c r="K54">
         <v>12748.147083821625</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N54">
+        <v>4.3786708378389081</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B55">
         <v>2013</v>
@@ -2094,18 +2173,21 @@
       <c r="K55">
         <v>13361.364553725398</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N55">
+        <v>4.4647502498053937</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B56">
         <v>2014</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B57">
         <v>1960</v>
@@ -2114,9 +2196,9 @@
         <v>14.069575876231674</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B58">
         <v>1961</v>
@@ -2128,9 +2210,9 @@
         <v>5.3808600063247241</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B59">
         <v>1962</v>
@@ -2142,9 +2224,9 @@
         <v>4.8678267803241511</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B60">
         <v>1963</v>
@@ -2156,9 +2238,9 @@
         <v>5.1725364556568962</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B61">
         <v>1964</v>
@@ -2170,9 +2252,9 @@
         <v>5.5367408316183884</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B62">
         <v>1965</v>
@@ -2184,9 +2266,9 @@
         <v>4.314987208117941</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B63">
         <v>1966</v>
@@ -2198,9 +2280,9 @@
         <v>4.3908837489260861</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B64">
         <v>1967</v>
@@ -2214,7 +2296,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B65">
         <v>1968</v>
@@ -2228,7 +2310,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B66">
         <v>1969</v>
@@ -2242,7 +2324,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B67">
         <v>1970</v>
@@ -2256,7 +2338,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B68">
         <v>1971</v>
@@ -2270,7 +2352,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B69">
         <v>1972</v>
@@ -2284,7 +2366,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B70">
         <v>1973</v>
@@ -2298,7 +2380,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B71">
         <v>1974</v>
@@ -2312,7 +2394,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B72">
         <v>1975</v>
@@ -2326,7 +2408,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B73">
         <v>1976</v>
@@ -2340,7 +2422,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B74">
         <v>1977</v>
@@ -2354,7 +2436,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B75">
         <v>1978</v>
@@ -2368,7 +2450,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B76">
         <v>1979</v>
@@ -2382,7 +2464,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B77">
         <v>1980</v>
@@ -2396,7 +2478,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B78">
         <v>1981</v>
@@ -2413,7 +2495,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B79">
         <v>1982</v>
@@ -2427,7 +2509,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B80">
         <v>1983</v>
@@ -2439,9 +2521,9 @@
         <v>1.9942443355838577</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B81">
         <v>1984</v>
@@ -2453,9 +2535,9 @@
         <v>2.6643810870169204</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B82">
         <v>1985</v>
@@ -2470,9 +2552,9 @@
         <v>2.6354674441981985</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B83">
         <v>1986</v>
@@ -2487,9 +2569,9 @@
         <v>2.7643710100782073</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B84">
         <v>1987</v>
@@ -2504,9 +2586,9 @@
         <v>3.0834947178876746</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B85">
         <v>1988</v>
@@ -2518,9 +2600,9 @@
         <v>4.2132155675967766</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B86">
         <v>1989</v>
@@ -2532,9 +2614,9 @@
         <v>3.4708071273616241</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B87">
         <v>1990</v>
@@ -2549,9 +2631,9 @@
         <v>20291.545582287901</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B88">
         <v>1991</v>
@@ -2577,10 +2659,13 @@
       <c r="K88">
         <v>20068.568902102921</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N88">
+        <v>9.4497605880956748</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B89">
         <v>1992</v>
@@ -2612,10 +2697,13 @@
       <c r="K89">
         <v>19513.591754802321</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N89">
+        <v>8.6104088273391781</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B90">
         <v>1993</v>
@@ -2647,10 +2735,13 @@
       <c r="K90">
         <v>19116.356980179484</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N90">
+        <v>9.7175340830297436</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B91">
         <v>1994</v>
@@ -2688,10 +2779,13 @@
       <c r="M91">
         <v>17.71321986670932</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N91">
+        <v>10.191838613806643</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B92">
         <v>1995</v>
@@ -2729,10 +2823,13 @@
       <c r="M92">
         <v>18.827553448144894</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N92">
+        <v>10.000839883278491</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B93">
         <v>1996</v>
@@ -2770,10 +2867,13 @@
       <c r="M93">
         <v>26.65711168147919</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N93">
+        <v>10.090409724956798</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B94">
         <v>1997</v>
@@ -2805,10 +2905,13 @@
       <c r="K94">
         <v>20031.663251061083</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N94">
+        <v>10.414047915616697</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B95">
         <v>1998</v>
@@ -2840,10 +2943,13 @@
       <c r="K95">
         <v>20412.556369241622</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N95">
+        <v>10.516473760802825</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B96">
         <v>1999</v>
@@ -2875,10 +2981,13 @@
       <c r="K96">
         <v>20964.947055869121</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N96">
+        <v>10.379649093975257</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B97">
         <v>2000</v>
@@ -2910,10 +3019,13 @@
       <c r="K97">
         <v>21922.113508923743</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N97">
+        <v>9.6702488535312945</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B98">
         <v>2001</v>
@@ -2945,10 +3057,13 @@
       <c r="K98">
         <v>22414.13156247884</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N98">
+        <v>9.1646289130302616</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B99">
         <v>2002</v>
@@ -2986,10 +3101,13 @@
       <c r="M99">
         <v>22.030629715927486</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N99">
+        <v>9.1721471227034534</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B100">
         <v>2003</v>
@@ -3027,10 +3145,13 @@
       <c r="M100">
         <v>22.601285647610226</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N100">
+        <v>9.1944175999925015</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B101">
         <v>2004</v>
@@ -3068,10 +3189,13 @@
       <c r="M101">
         <v>29.077262661594549</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N101">
+        <v>9.2267413827183251</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B102">
         <v>2005</v>
@@ -3109,10 +3233,13 @@
       <c r="M102">
         <v>28.965553039776502</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N102">
+        <v>8.8495864374053923</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B103">
         <v>2006</v>
@@ -3150,10 +3277,13 @@
       <c r="M103">
         <v>29.471182199658649</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N103">
+        <v>8.39112112839506</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B104">
         <v>2007</v>
@@ -3191,10 +3321,13 @@
       <c r="M104">
         <v>30.252056535014372</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N104">
+        <v>7.5143588220716229</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B105">
         <v>2008</v>
@@ -3232,10 +3365,13 @@
       <c r="M105">
         <v>30.970501727802574</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N105">
+        <v>7.3680405288236619</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B106">
         <v>2009</v>
@@ -3273,10 +3409,13 @@
       <c r="M106">
         <v>25.832196640063653</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N106">
+        <v>9.2538470344947399</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B107">
         <v>2010</v>
@@ -3314,10 +3453,13 @@
       <c r="M107">
         <v>26.601075010203811</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N107">
+        <v>9.3335854971235008</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B108">
         <v>2011</v>
@@ -3355,10 +3497,13 @@
       <c r="M108">
         <v>27.254284870743611</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N108">
+        <v>9.0344519041232996</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B109">
         <v>2012</v>
@@ -3393,10 +3538,13 @@
       <c r="M109">
         <v>28.195986763367348</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N109">
+        <v>9.2985490180323236</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B110">
         <v>2013</v>
@@ -3425,16 +3573,19 @@
       <c r="K110">
         <v>27339.626058081249</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N110">
+        <v>9.5988348331774596</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B111">
         <v>2014</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>24</v>
       </c>
@@ -3843,7 +3994,7 @@
         <v>5.7032533588047301</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>24</v>
       </c>
@@ -3872,7 +4023,7 @@
         <v>4.7483192628846354</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>24</v>
       </c>
@@ -3901,7 +4052,7 @@
         <v>4.4839965921747336</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>24</v>
       </c>
@@ -3930,7 +4081,7 @@
         <v>7.0117916468524868</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>24</v>
       </c>
@@ -3959,7 +4110,7 @@
         <v>6.5615095400815164</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>24</v>
       </c>
@@ -3988,7 +4139,7 @@
         <v>1.483157919093486</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>24</v>
       </c>
@@ -4017,7 +4168,7 @@
         <v>-0.80752831464045016</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>24</v>
       </c>
@@ -4046,7 +4197,7 @@
         <v>-2.7152196728751079</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>24</v>
       </c>
@@ -4075,7 +4226,7 @@
         <v>3.9484403385155105</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>24</v>
       </c>
@@ -4104,7 +4255,7 @@
         <v>3.1968457081333668</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>24</v>
       </c>
@@ -4136,7 +4287,7 @@
         <v>3.427915461223634</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>24</v>
       </c>
@@ -4168,7 +4319,7 @@
         <v>3.2435564808700406</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>24</v>
       </c>
@@ -4200,7 +4351,7 @@
         <v>0.89043282756411202</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>24</v>
       </c>
@@ -4229,7 +4380,7 @@
         <v>1.6616165586897012</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>24</v>
       </c>
@@ -4261,7 +4412,7 @@
         <v>9814.3129190466479</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>24</v>
       </c>
@@ -4295,8 +4446,11 @@
       <c r="K143">
         <v>9987.0322566466675</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N143">
+        <v>6.8603738983308276</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>24</v>
       </c>
@@ -4330,8 +4484,11 @@
       <c r="K144">
         <v>10105.56393548234</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N144">
+        <v>6.5126368995492392</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>24</v>
       </c>
@@ -4365,8 +4522,11 @@
       <c r="K145">
         <v>10298.476753873825</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N145">
+        <v>6.7966057648672402</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>24</v>
       </c>
@@ -4400,8 +4560,11 @@
       <c r="K146">
         <v>10593.937288305982</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N146">
+        <v>7.0052570986773803</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>24</v>
       </c>
@@ -4435,8 +4598,11 @@
       <c r="K147">
         <v>10553.485621353229</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N147">
+        <v>8.1138698782275256</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>24</v>
       </c>
@@ -4476,8 +4642,11 @@
       <c r="M148">
         <v>11.493875780776296</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N148">
+        <v>8.2283162305626032</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>24</v>
       </c>
@@ -4517,8 +4686,11 @@
       <c r="M149">
         <v>12.286140705530068</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N149">
+        <v>7.8043613064586319</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>24</v>
       </c>
@@ -4558,8 +4730,11 @@
       <c r="M150">
         <v>12.712860215920813</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N150">
+        <v>8.0610782939498566</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>24</v>
       </c>
@@ -4593,8 +4768,11 @@
       <c r="K151">
         <v>11047.390923021674</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N151">
+        <v>8.6063296685842996</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>24</v>
       </c>
@@ -4628,8 +4806,11 @@
       <c r="K152">
         <v>11295.612129100473</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N152">
+        <v>8.7773924612265812</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>24</v>
       </c>
@@ -4663,8 +4844,11 @@
       <c r="K153">
         <v>11217.703857978448</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N153">
+        <v>8.7657631236464209</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>24</v>
       </c>
@@ -4698,8 +4882,11 @@
       <c r="K154">
         <v>11076.363323776979</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N154">
+        <v>9.0657309443295055</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>24</v>
       </c>
@@ -4733,8 +4920,11 @@
       <c r="K155">
         <v>11142.09052815563</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N155">
+        <v>9.1197444093596811</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>24</v>
       </c>
@@ -4768,8 +4958,11 @@
       <c r="K156">
         <v>11663.129328343774</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N156">
+        <v>8.4733917122478921</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>24</v>
       </c>
@@ -4803,8 +4996,11 @@
       <c r="K157">
         <v>12056.034767322013</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N157">
+        <v>8.0220323909171558</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>24</v>
       </c>
@@ -4844,8 +5040,11 @@
       <c r="M158">
         <v>14.369381308972816</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N158">
+        <v>7.3321702809169178</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>24</v>
       </c>
@@ -4885,8 +5084,11 @@
       <c r="M159">
         <v>14.551485569577238</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N159">
+        <v>6.8891059455211883</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>24</v>
       </c>
@@ -4920,8 +5122,11 @@
       <c r="K160">
         <v>13454.178378255534</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N160">
+        <v>6.4469451977938554</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>24</v>
       </c>
@@ -4955,8 +5160,11 @@
       <c r="K161">
         <v>13125.296766556026</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N161">
+        <v>7.5149451934432809</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>24</v>
       </c>
@@ -4990,8 +5198,11 @@
       <c r="K162">
         <v>13714.71556321278</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N162">
+        <v>7.2717742939155388</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>24</v>
       </c>
@@ -5031,8 +5242,11 @@
       <c r="M163">
         <v>20.492325627566682</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N163">
+        <v>6.6719744863237329</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>24</v>
       </c>
@@ -5063,8 +5277,11 @@
       <c r="K164">
         <v>14378.400562603912</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N164">
+        <v>6.2690238993899703</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>24</v>
       </c>
@@ -5095,8 +5312,11 @@
       <c r="K165">
         <v>14599.7526966521</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N165">
+        <v>6.1883377018831007</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>24</v>
       </c>
@@ -5104,7 +5324,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>2</v>
       </c>
@@ -5112,7 +5332,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>2</v>
       </c>
@@ -5120,7 +5340,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>2</v>
       </c>
@@ -5128,7 +5348,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>2</v>
       </c>
@@ -5136,7 +5356,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>2</v>
       </c>
@@ -5147,7 +5367,7 @@
         <v>9165</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>2</v>
       </c>
@@ -5158,7 +5378,7 @@
         <v>11099</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>2</v>
       </c>
@@ -5169,7 +5389,7 @@
         <v>25959</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>2</v>
       </c>
@@ -5180,7 +5400,7 @@
         <v>12207</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>2</v>
       </c>
@@ -5194,7 +5414,7 @@
         <v>18.235499064737553</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>2</v>
       </c>
@@ -5552,7 +5772,7 @@
         <v>0.53683611346622229</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>2</v>
       </c>
@@ -5581,7 +5801,7 @@
         <v>-0.80968806633028123</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>2</v>
       </c>
@@ -5610,7 +5830,7 @@
         <v>0.2356138654030957</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>2</v>
       </c>
@@ -5639,7 +5859,7 @@
         <v>2.6580613561957023</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>2</v>
       </c>
@@ -5668,7 +5888,7 @@
         <v>2.2796500442344723</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>2</v>
       </c>
@@ -5700,7 +5920,7 @@
         <v>10767.201103081063</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>2</v>
       </c>
@@ -5731,8 +5951,11 @@
       <c r="K198">
         <v>10594.513108132614</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N198">
+        <v>11.96605769269515</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>2</v>
       </c>
@@ -5763,8 +5986,11 @@
       <c r="K199">
         <v>10954.366831475518</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N199">
+        <v>12.374506647259695</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>2</v>
       </c>
@@ -5795,8 +6021,11 @@
       <c r="K200">
         <v>11016.747416148854</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N200">
+        <v>12.537396489371844</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>2</v>
       </c>
@@ -5827,8 +6056,11 @@
       <c r="K201">
         <v>11079.453684005248</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N201">
+        <v>12.496113540910548</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>2</v>
       </c>
@@ -5859,8 +6091,11 @@
       <c r="K202">
         <v>11167.157697067769</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N202">
+        <v>12.650532936594443</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>2</v>
       </c>
@@ -5894,8 +6129,11 @@
       <c r="K203">
         <v>11539.520934646223</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N203">
+        <v>12.424212111361046</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>2</v>
       </c>
@@ -5929,8 +6167,11 @@
       <c r="K204">
         <v>11819.525558142543</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N204">
+        <v>12.025995625637936</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>2</v>
       </c>
@@ -5964,8 +6205,11 @@
       <c r="K205">
         <v>12192.537543190187</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N205">
+        <v>12.061306387748854</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>2</v>
       </c>
@@ -5999,8 +6243,11 @@
       <c r="K206">
         <v>12344.478079833967</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N206">
+        <v>12.064824557590255</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>2</v>
       </c>
@@ -6034,8 +6281,11 @@
       <c r="K207">
         <v>12709.501762953556</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N207">
+        <v>13.248750652962761</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>2</v>
       </c>
@@ -6069,8 +6319,11 @@
       <c r="K208">
         <v>12775.411484223401</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N208">
+        <v>12.920660286702391</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>2</v>
       </c>
@@ -6104,8 +6357,11 @@
       <c r="K209">
         <v>12834.902345097358</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N209">
+        <v>13.105112797795996</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>2</v>
       </c>
@@ -6139,8 +6395,11 @@
       <c r="K210">
         <v>13104.950065008152</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N210">
+        <v>13.424692394880617</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>2</v>
       </c>
@@ -6174,8 +6433,11 @@
       <c r="K211">
         <v>13936.379722245631</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N211">
+        <v>12.390576521347867</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>2</v>
       </c>
@@ -6209,8 +6471,11 @@
       <c r="K212">
         <v>14425.23775528467</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N212">
+        <v>11.845372462673033</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>2</v>
       </c>
@@ -6244,8 +6509,11 @@
       <c r="K213">
         <v>15067.336889830158</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N213">
+        <v>10.994593274199982</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>2</v>
       </c>
@@ -6279,8 +6547,11 @@
       <c r="K214">
         <v>15625.962501481257</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N214">
+        <v>10.386181389983571</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>2</v>
       </c>
@@ -6302,8 +6573,11 @@
       <c r="K215">
         <v>16071.573955976735</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N215">
+        <v>9.9782605233030779</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>2</v>
       </c>
@@ -6325,8 +6599,11 @@
       <c r="K216">
         <v>16150.894084565236</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N216">
+        <v>10.140447202063386</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>2</v>
       </c>
@@ -6357,8 +6634,11 @@
       <c r="K217">
         <v>16676.689259281178</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N217">
+        <v>10.431229580612863</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>2</v>
       </c>
@@ -6389,8 +6669,11 @@
       <c r="K218">
         <v>16837.913449133823</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N218">
+        <v>11.258415197493571</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>2</v>
       </c>
@@ -6418,8 +6701,11 @@
       <c r="K219">
         <v>17432.369349435863</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N219">
+        <v>11.333174972662823</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>2</v>
       </c>
@@ -6447,8 +6733,11 @@
       <c r="K220">
         <v>17302.109523866697</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N220">
+        <v>11.220469779083034</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>2</v>
       </c>
@@ -6456,9 +6745,9 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B222">
         <v>1960</v>
@@ -6467,9 +6756,9 @@
         <v>10.348260865534789</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B223">
         <v>1961</v>
@@ -6481,9 +6770,9 @@
         <v>1.6726242028314573</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B224">
         <v>1962</v>
@@ -6497,7 +6786,7 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B225">
         <v>1963</v>
@@ -6511,7 +6800,7 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B226">
         <v>1964</v>
@@ -6525,7 +6814,7 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B227">
         <v>1965</v>
@@ -6548,7 +6837,7 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B228">
         <v>1966</v>
@@ -6571,7 +6860,7 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B229">
         <v>1967</v>
@@ -6594,7 +6883,7 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B230">
         <v>1968</v>
@@ -6617,7 +6906,7 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B231">
         <v>1969</v>
@@ -6640,7 +6929,7 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B232">
         <v>1970</v>
@@ -6663,7 +6952,7 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B233">
         <v>1971</v>
@@ -6686,7 +6975,7 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B234">
         <v>1972</v>
@@ -6709,7 +6998,7 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B235">
         <v>1973</v>
@@ -6732,7 +7021,7 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B236">
         <v>1974</v>
@@ -6755,7 +7044,7 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B237">
         <v>1975</v>
@@ -6781,7 +7070,7 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B238">
         <v>1976</v>
@@ -6807,7 +7096,7 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B239">
         <v>1977</v>
@@ -6833,7 +7122,7 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B240">
         <v>1978</v>
@@ -6857,9 +7146,9 @@
         <v>0.7378743985273104</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B241">
         <v>1979</v>
@@ -6883,9 +7172,9 @@
         <v>3.8091425071353484</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B242">
         <v>1980</v>
@@ -6909,9 +7198,9 @@
         <v>4.023136611069944</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B243">
         <v>1981</v>
@@ -6935,9 +7224,9 @@
         <v>1.675169603944056</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B244">
         <v>1982</v>
@@ -6961,9 +7250,9 @@
         <v>0.38866131624352818</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B245">
         <v>1983</v>
@@ -6987,9 +7276,9 @@
         <v>-1.1525760341355067</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B246">
         <v>1984</v>
@@ -7013,9 +7302,9 @@
         <v>2.7672844276577848</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B247">
         <v>1985</v>
@@ -7039,9 +7328,9 @@
         <v>1.3681799731733548</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B248">
         <v>1986</v>
@@ -7068,9 +7357,9 @@
         <v>0.34493598284311133</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B249">
         <v>1987</v>
@@ -7097,9 +7386,9 @@
         <v>0.89528488225670344</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B250">
         <v>1988</v>
@@ -7126,9 +7415,9 @@
         <v>4.0828593532194191</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B251">
         <v>1989</v>
@@ -7155,9 +7444,9 @@
         <v>3.0691481052798224</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B252">
         <v>1990</v>
@@ -7187,9 +7476,9 @@
         <v>2511.4668476838287</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B253">
         <v>1991</v>
@@ -7218,10 +7507,13 @@
       <c r="K253">
         <v>2444.7415947837444</v>
       </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N253">
+        <v>8.3027493751997561</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B254">
         <v>1992</v>
@@ -7250,10 +7542,13 @@
       <c r="K254">
         <v>2352.0591335419567</v>
       </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N254">
+        <v>8.2215676277648271</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B255">
         <v>1993</v>
@@ -7282,10 +7577,13 @@
       <c r="K255">
         <v>2298.6910460687204</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N255">
+        <v>8.4604722701078643</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B256">
         <v>1994</v>
@@ -7314,10 +7612,13 @@
       <c r="K256">
         <v>2276.3735153207117</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N256">
+        <v>8.1424498686562909</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B257">
         <v>1995</v>
@@ -7346,10 +7647,13 @@
       <c r="K257">
         <v>2286.2536935710568</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N257">
+        <v>8.0173635851494396</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B258">
         <v>1996</v>
@@ -7378,10 +7682,13 @@
       <c r="K258">
         <v>2341.285273770005</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N258">
+        <v>8.3245502098114876</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B259">
         <v>1997</v>
@@ -7410,10 +7717,13 @@
       <c r="K259">
         <v>2364.170322889162</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N259">
+        <v>8.4093352639423529</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B260">
         <v>1998</v>
@@ -7442,10 +7752,13 @@
       <c r="K260">
         <v>2360.9597844226755</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N260">
+        <v>8.5048125514336981</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B261">
         <v>1999</v>
@@ -7474,10 +7787,13 @@
       <c r="K261">
         <v>2351.4702675496283</v>
       </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N261">
+        <v>8.550534013802789</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B262">
         <v>2000</v>
@@ -7506,10 +7822,13 @@
       <c r="K262">
         <v>2371.5970833636802</v>
       </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N262">
+        <v>8.7128529235168379</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B263">
         <v>2001</v>
@@ -7538,10 +7857,13 @@
       <c r="K263">
         <v>2404.8285121602657</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N263">
+        <v>8.6171064427629958</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B264">
         <v>2002</v>
@@ -7570,10 +7892,13 @@
       <c r="K264">
         <v>2430.5489709130065</v>
       </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N264">
+        <v>8.53046983833101</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B265">
         <v>2003</v>
@@ -7602,10 +7927,13 @@
       <c r="K265">
         <v>2487.7167356178811</v>
       </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N265">
+        <v>8.3755388792525771</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B266">
         <v>2004</v>
@@ -7634,10 +7962,13 @@
       <c r="K266">
         <v>2719.852426655792</v>
       </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N266">
+        <v>7.9438440250720719</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B267">
         <v>2005</v>
@@ -7666,10 +7997,13 @@
       <c r="K267">
         <v>2793.6323710015949</v>
       </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N267">
+        <v>7.6630688563767242</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B268">
         <v>2006</v>
@@ -7698,10 +8032,13 @@
       <c r="K268">
         <v>2911.1055884928005</v>
       </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N268">
+        <v>7.7628846765839805</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B269">
         <v>2007</v>
@@ -7730,10 +8067,13 @@
       <c r="K269">
         <v>3034.965651475266</v>
       </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N269">
+        <v>7.553162560080219</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B270">
         <v>2008</v>
@@ -7762,10 +8102,13 @@
       <c r="K270">
         <v>3107.9521232742586</v>
       </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N270">
+        <v>7.7222423990919609</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B271">
         <v>2009</v>
@@ -7794,10 +8137,13 @@
       <c r="K271">
         <v>3122.0679194679483</v>
       </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N271">
+        <v>7.7570469680708829</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B272">
         <v>2010</v>
@@ -7826,10 +8172,13 @@
       <c r="K272">
         <v>3216.6949912974965</v>
       </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N272">
+        <v>7.6446240453184879</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B273">
         <v>2011</v>
@@ -7858,10 +8207,13 @@
       <c r="K273">
         <v>3270.027287994455</v>
       </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N273">
+        <v>7.6621879097704255</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B274">
         <v>2012</v>
@@ -7887,10 +8239,13 @@
       <c r="K274">
         <v>3285.7083074393336</v>
       </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N274">
+        <v>7.631035925049547</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B275">
         <v>2013</v>
@@ -7916,16 +8271,19 @@
       <c r="K275">
         <v>3342.4208674874908</v>
       </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N275">
+        <v>7.653099886471022</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B276">
         <v>2014</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>14</v>
       </c>
@@ -7939,7 +8297,7 @@
         <v>15.563299890589711</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>14</v>
       </c>
@@ -7956,7 +8314,7 @@
         <v>2.597919179296639</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>14</v>
       </c>
@@ -7973,7 +8331,7 @@
         <v>6.189347702846689</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>14</v>
       </c>
@@ -7990,7 +8348,7 @@
         <v>4.4217341359586726</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>14</v>
       </c>
@@ -8007,7 +8365,7 @@
         <v>5.842370283847572</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>14</v>
       </c>
@@ -8024,7 +8382,7 @@
         <v>6.5034770441729535</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>14</v>
       </c>
@@ -8041,7 +8399,7 @@
         <v>6.5926302040352596</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>14</v>
       </c>
@@ -8058,7 +8416,7 @@
         <v>2.7615500183044759</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>14</v>
       </c>
@@ -8075,7 +8433,7 @@
         <v>4.9450554902782358</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>14</v>
       </c>
@@ -8092,7 +8450,7 @@
         <v>3.3036723275750717</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>14</v>
       </c>
@@ -8109,7 +8467,7 @@
         <v>0.79471705437794071</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>14</v>
       </c>
@@ -8410,7 +8768,7 @@
         <v>3.608463980440817</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>14</v>
       </c>
@@ -8430,7 +8788,7 @@
         <v>4.2464970860863929</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>14</v>
       </c>
@@ -8450,7 +8808,7 @@
         <v>3.5645185063599314</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>14</v>
       </c>
@@ -8473,7 +8831,7 @@
         <v>36435.064402161443</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>14</v>
       </c>
@@ -8495,8 +8853,11 @@
       <c r="K308">
         <v>35864.750986532701</v>
       </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N308">
+        <v>7.251076356752117</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>14</v>
       </c>
@@ -8518,8 +8879,11 @@
       <c r="K309">
         <v>36553.726030971811</v>
       </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N309">
+        <v>7.9650357573817363</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>14</v>
       </c>
@@ -8541,8 +8905,11 @@
       <c r="K310">
         <v>37068.464638454192</v>
       </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N310">
+        <v>7.4444792335560388</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>14</v>
       </c>
@@ -8564,8 +8931,11 @@
       <c r="K311">
         <v>38122.134732853934</v>
       </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N311">
+        <v>6.6202383551357986</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>14</v>
       </c>
@@ -8587,8 +8957,11 @@
       <c r="K312">
         <v>38709.031282507349</v>
       </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N312">
+        <v>6.076823495334863</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>14</v>
       </c>
@@ -8610,8 +8983,11 @@
       <c r="K313">
         <v>39651.337247816373</v>
       </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N313">
+        <v>5.9045876461552975</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>14</v>
       </c>
@@ -8651,8 +9027,11 @@
       <c r="M314">
         <v>34.68565284198089</v>
       </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N314">
+        <v>5.4041624509853889</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>14</v>
       </c>
@@ -8692,8 +9071,11 @@
       <c r="M315">
         <v>34.254255390074363</v>
       </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N315">
+        <v>4.9653797002471363</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>14</v>
       </c>
@@ -8733,8 +9115,11 @@
       <c r="M316">
         <v>34.676059795244065</v>
       </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N316">
+        <v>4.6272907990903596</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>14</v>
       </c>
@@ -8774,8 +9159,11 @@
       <c r="M317">
         <v>35.257273722771892</v>
       </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N317">
+        <v>4.3684000411388464</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>14</v>
       </c>
@@ -8815,8 +9203,11 @@
       <c r="M318">
         <v>36.230636622232247</v>
       </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N318">
+        <v>5.0402881234152801</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>14</v>
       </c>
@@ -8850,8 +9241,11 @@
       <c r="K319">
         <v>45567.683237323006</v>
       </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N319">
+        <v>6.0836499808980893</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>14</v>
       </c>
@@ -8885,8 +9279,11 @@
       <c r="K320">
         <v>46407.295564138083</v>
       </c>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N320">
+        <v>6.2557396236787683</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>14</v>
       </c>
@@ -8920,8 +9317,11 @@
       <c r="K321">
         <v>47693.162336496032</v>
       </c>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N321">
+        <v>5.7671506928495742</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>14</v>
       </c>
@@ -8955,8 +9355,11 @@
       <c r="K322">
         <v>48826.405317784054</v>
       </c>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N322">
+        <v>5.3559583118233745</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>14</v>
       </c>
@@ -8990,8 +9393,11 @@
       <c r="K323">
         <v>49653.815667821138</v>
       </c>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N323">
+        <v>4.8661227470782764</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>14</v>
       </c>
@@ -9025,8 +9431,11 @@
       <c r="K324">
         <v>50064.602959702315</v>
       </c>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N324">
+        <v>4.8364814279809307</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>14</v>
       </c>
@@ -9060,8 +9469,11 @@
       <c r="K325">
         <v>49515.985001411289</v>
       </c>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N325">
+        <v>5.9211061390022524</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>14</v>
       </c>
@@ -9095,8 +9507,11 @@
       <c r="K326">
         <v>47698.520825181593</v>
       </c>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N326">
+        <v>9.2833463794521496</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>14</v>
       </c>
@@ -9127,8 +9542,11 @@
       <c r="K327">
         <v>48519.292120469334</v>
       </c>
-    </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N327">
+        <v>9.5176624040251383</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>14</v>
       </c>
@@ -9159,8 +9577,11 @@
       <c r="K328">
         <v>48963.635159951569</v>
       </c>
-    </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N328">
+        <v>8.8272904502036056</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>14</v>
       </c>
@@ -9191,8 +9612,11 @@
       <c r="K329">
         <v>49684.78344651877</v>
       </c>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N329">
+        <v>8.0917029738444217</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>14</v>
       </c>
@@ -9211,8 +9635,11 @@
       <c r="K330">
         <v>50396.126445219517</v>
       </c>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N330">
+        <v>7.3673010414819222</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>14</v>
       </c>
@@ -9220,9 +9647,9 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B332">
         <v>1960</v>
@@ -9243,9 +9670,9 @@
         <v>7.4171723892183783</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B333">
         <v>1961</v>
@@ -9269,9 +9696,9 @@
         <v>4.1105456394684694</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B334">
         <v>1962</v>
@@ -9295,9 +9722,9 @@
         <v>3.3093402569741386</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B335">
         <v>1963</v>
@@ -9324,9 +9751,9 @@
         <v>5.4204023864682398</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B336">
         <v>1964</v>
@@ -9355,7 +9782,7 @@
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B337">
         <v>1965</v>
@@ -9384,7 +9811,7 @@
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B338">
         <v>1966</v>
@@ -9413,7 +9840,7 @@
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B339">
         <v>1967</v>
@@ -9442,7 +9869,7 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B340">
         <v>1968</v>
@@ -9471,7 +9898,7 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B341">
         <v>1969</v>
@@ -9500,7 +9927,7 @@
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B342">
         <v>1970</v>
@@ -9529,7 +9956,7 @@
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B343">
         <v>1971</v>
@@ -9558,7 +9985,7 @@
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B344">
         <v>1972</v>
@@ -9587,7 +10014,7 @@
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B345">
         <v>1973</v>
@@ -9616,7 +10043,7 @@
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B346">
         <v>1974</v>
@@ -9645,7 +10072,7 @@
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B347">
         <v>1975</v>
@@ -9674,7 +10101,7 @@
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B348">
         <v>1976</v>
@@ -9703,7 +10130,7 @@
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B349">
         <v>1977</v>
@@ -9732,7 +10159,7 @@
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B350">
         <v>1978</v>
@@ -9761,7 +10188,7 @@
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B351">
         <v>1979</v>
@@ -9790,7 +10217,7 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B352">
         <v>1980</v>
@@ -9814,9 +10241,9 @@
         <v>6.5390408534066466</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B353">
         <v>1981</v>
@@ -9846,9 +10273,9 @@
         <v>6.0859026775605969</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B354">
         <v>1982</v>
@@ -9875,9 +10302,9 @@
         <v>3.7881463531795276</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B355">
         <v>1983</v>
@@ -9904,9 +10331,9 @@
         <v>6.8104820892107796</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B356">
         <v>1984</v>
@@ -9933,9 +10360,9 @@
         <v>4.1639694770191085</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B357">
         <v>1985</v>
@@ -9965,9 +10392,9 @@
         <v>5.402336466089082</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B358">
         <v>1986</v>
@@ -9997,9 +10424,9 @@
         <v>4.8215932714810208</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B359">
         <v>1987</v>
@@ -10029,9 +10456,9 @@
         <v>4.1954356535478894</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B360">
         <v>1988</v>
@@ -10061,9 +10488,9 @@
         <v>8.6185232493949542</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B361">
         <v>1989</v>
@@ -10093,9 +10520,9 @@
         <v>5.4877054286788933</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B362">
         <v>1990</v>
@@ -10128,9 +10555,9 @@
         <v>1850.410601201917</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B363">
         <v>1991</v>
@@ -10162,10 +10589,13 @@
       <c r="K363">
         <v>1846.91100241699</v>
       </c>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N363">
+        <v>4.458750389716128</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B364">
         <v>1992</v>
@@ -10197,10 +10627,13 @@
       <c r="K364">
         <v>1912.5567802684859</v>
       </c>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N364">
+        <v>4.2822235962674471</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B365">
         <v>1993</v>
@@ -10232,10 +10665,13 @@
       <c r="K365">
         <v>1953.4973262322064</v>
       </c>
-    </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N365">
+        <v>4.2784495044143798</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B366">
         <v>1994</v>
@@ -10273,10 +10709,13 @@
       <c r="M366">
         <v>4.9000000953674299</v>
       </c>
-    </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N366">
+        <v>3.7876989914124519</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B367">
         <v>1995</v>
@@ -10308,10 +10747,13 @@
       <c r="K367">
         <v>2125.7350812153768</v>
       </c>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N367">
+        <v>4.0488487771970068</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B368">
         <v>1996</v>
@@ -10343,10 +10785,13 @@
       <c r="K368">
         <v>2226.7851837204557</v>
       </c>
-    </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N368">
+        <v>4.0584529676108323</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B369">
         <v>1997</v>
@@ -10378,10 +10823,13 @@
       <c r="K369">
         <v>2266.4696923428141</v>
       </c>
-    </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N369">
+        <v>4.2689863678279849</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B370">
         <v>1998</v>
@@ -10413,10 +10861,13 @@
       <c r="K370">
         <v>2347.2649995872594</v>
       </c>
-    </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N370">
+        <v>4.10702818077137</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B371">
         <v>1999</v>
@@ -10448,10 +10899,13 @@
       <c r="K371">
         <v>2481.9865575940498</v>
       </c>
-    </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N371">
+        <v>4.4053077138932162</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B372">
         <v>2000</v>
@@ -10489,10 +10943,13 @@
       <c r="M372">
         <v>6.2212179548032358</v>
       </c>
-    </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N372">
+        <v>4.4419733424722576</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B373">
         <v>2001</v>
@@ -10524,10 +10981,13 @@
       <c r="K373">
         <v>2603.3949798928184</v>
       </c>
-    </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N373">
+        <v>4.2649295391605611</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B374">
         <v>2002</v>
@@ -10559,10 +11019,13 @@
       <c r="K374">
         <v>2655.6936738111549</v>
       </c>
-    </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N374">
+        <v>4.5162034082838067</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B375">
         <v>2003</v>
@@ -10594,10 +11057,13 @@
       <c r="K375">
         <v>2801.0285547887634</v>
       </c>
-    </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N375">
+        <v>4.2843737905740618</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B376">
         <v>2004</v>
@@ -10629,10 +11095,13 @@
       <c r="K376">
         <v>2966.939804872678</v>
       </c>
-    </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N376">
+        <v>4.2832526204586676</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B377">
         <v>2005</v>
@@ -10670,10 +11139,13 @@
       <c r="M377">
         <v>8.2449291134056004</v>
       </c>
-    </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N377">
+        <v>4.6614680736532401</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B378">
         <v>2006</v>
@@ -10705,10 +11177,13 @@
       <c r="K378">
         <v>3400.5258357558305</v>
       </c>
-    </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N378">
+        <v>4.4828301365125487</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B379">
         <v>2007</v>
@@ -10740,10 +11215,13 @@
       <c r="K379">
         <v>3651.7462738060767</v>
       </c>
-    </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N379">
+        <v>3.9506119108526749</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B380">
         <v>2008</v>
@@ -10775,10 +11253,13 @@
       <c r="K380">
         <v>3739.2535200887351</v>
       </c>
-    </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N380">
+        <v>4.2462672371121055</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B381">
         <v>2009</v>
@@ -10810,10 +11291,13 @@
       <c r="K381">
         <v>3966.5463801314445</v>
       </c>
-    </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N381">
+        <v>4.1748824125386799</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B382">
         <v>2010</v>
@@ -10851,10 +11335,13 @@
       <c r="M382">
         <v>9.8000001907348597</v>
       </c>
-    </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N382">
+        <v>3.8182243110829512</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B383">
         <v>2011</v>
@@ -10886,10 +11373,13 @@
       <c r="K383">
         <v>4467.3956394494917</v>
       </c>
-    </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N383">
+        <v>3.8119278619805064</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B384">
         <v>2012</v>
@@ -10918,10 +11408,13 @@
       <c r="K384">
         <v>4635.2111139194858</v>
       </c>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N384">
+        <v>3.8903335815674103</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B385">
         <v>2013</v>
@@ -10950,18 +11443,21 @@
       <c r="K385">
         <v>4874.6423273433902</v>
       </c>
-    </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N385">
+        <v>3.8730506780741538</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B386">
         <v>2014</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B387">
         <v>1960</v>
@@ -10970,9 +11466,9 @@
         <v>13.637289752243626</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B388">
         <v>1961</v>
@@ -10984,9 +11480,9 @@
         <v>4.3404551633797581</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B389">
         <v>1962</v>
@@ -10998,9 +11494,9 @@
         <v>5.5695591516359997</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B390">
         <v>1963</v>
@@ -11012,9 +11508,9 @@
         <v>5.1817669124869354</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B391">
         <v>1964</v>
@@ -11026,9 +11522,9 @@
         <v>6.5878196201317678</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B392">
         <v>1965</v>
@@ -11040,9 +11536,9 @@
         <v>5.5340474858073065</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B393">
         <v>1966</v>
@@ -11054,9 +11550,9 @@
         <v>5.8823032951758876</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B394">
         <v>1967</v>
@@ -11068,9 +11564,9 @@
         <v>4.4657845381354377</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B395">
         <v>1968</v>
@@ -11082,9 +11578,9 @@
         <v>6.0908796615373149</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B396">
         <v>1969</v>
@@ -11096,9 +11592,9 @@
         <v>5.8377345012719388</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B397">
         <v>1970</v>
@@ -11110,9 +11606,9 @@
         <v>4.2696847265849271</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B398">
         <v>1971</v>
@@ -11124,9 +11620,9 @@
         <v>4.0740387645295471</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B399">
         <v>1972</v>
@@ -11138,9 +11634,9 @@
         <v>5.5918971179518877</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B400">
         <v>1973</v>
@@ -11154,7 +11650,7 @@
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B401">
         <v>1974</v>
@@ -11168,7 +11664,7 @@
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B402">
         <v>1975</v>
@@ -11182,7 +11678,7 @@
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B403">
         <v>1976</v>
@@ -11196,7 +11692,7 @@
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B404">
         <v>1977</v>
@@ -11210,7 +11706,7 @@
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B405">
         <v>1978</v>
@@ -11224,7 +11720,7 @@
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B406">
         <v>1979</v>
@@ -11238,7 +11734,7 @@
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B407">
         <v>1980</v>
@@ -11255,7 +11751,7 @@
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B408">
         <v>1981</v>
@@ -11275,7 +11771,7 @@
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B409">
         <v>1982</v>
@@ -11292,7 +11788,7 @@
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B410">
         <v>1983</v>
@@ -11309,7 +11805,7 @@
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B411">
         <v>1984</v>
@@ -11326,7 +11822,7 @@
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B412">
         <v>1985</v>
@@ -11346,7 +11842,7 @@
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B413">
         <v>1986</v>
@@ -11366,7 +11862,7 @@
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B414">
         <v>1987</v>
@@ -11386,7 +11882,7 @@
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B415">
         <v>1988</v>
@@ -11406,7 +11902,7 @@
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B416">
         <v>1989</v>
@@ -11424,9 +11920,9 @@
         <v>3.774512950233742</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B417">
         <v>1990</v>
@@ -11447,9 +11943,9 @@
         <v>8790.3270723969272</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B418">
         <v>1991</v>
@@ -11469,10 +11965,13 @@
       <c r="K418">
         <v>8756.1494255927664</v>
       </c>
-    </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N418">
+        <v>6.2549841566462625</v>
+      </c>
+    </row>
+    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B419">
         <v>1992</v>
@@ -11492,10 +11991,13 @@
       <c r="K419">
         <v>8772.3881910335349</v>
       </c>
-    </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N419">
+        <v>5.8458329256526822</v>
+      </c>
+    </row>
+    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B420">
         <v>1993</v>
@@ -11515,10 +12017,13 @@
       <c r="K420">
         <v>8805.4680829305053</v>
       </c>
-    </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N420">
+        <v>6.0737285052297993</v>
+      </c>
+    </row>
+    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B421">
         <v>1994</v>
@@ -11538,10 +12043,13 @@
       <c r="K421">
         <v>8938.6509794335452</v>
       </c>
-    </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N421">
+        <v>5.9980494791699268</v>
+      </c>
+    </row>
+    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B422">
         <v>1995</v>
@@ -11570,10 +12078,13 @@
       <c r="K422">
         <v>9097.5018449363033</v>
       </c>
-    </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N422">
+        <v>6.0755579607364956</v>
+      </c>
+    </row>
+    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B423">
         <v>1996</v>
@@ -11602,10 +12113,13 @@
       <c r="K423">
         <v>9311.3977186623415</v>
       </c>
-    </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N423">
+        <v>6.1423122728470876</v>
+      </c>
+    </row>
+    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B424">
         <v>1997</v>
@@ -11637,10 +12151,13 @@
       <c r="K424">
         <v>9551.228381561179</v>
       </c>
-    </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N424">
+        <v>6.1908545944369582</v>
+      </c>
+    </row>
+    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B425">
         <v>1998</v>
@@ -11672,10 +12189,13 @@
       <c r="K425">
         <v>9645.9099064807688</v>
       </c>
-    </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N425">
+        <v>6.3332387412965199</v>
+      </c>
+    </row>
+    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B426">
         <v>1999</v>
@@ -11707,10 +12227,13 @@
       <c r="K426">
         <v>9858.9954334944632</v>
       </c>
-    </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N426">
+        <v>6.434209972577035</v>
+      </c>
+    </row>
+    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B427">
         <v>2000</v>
@@ -11742,10 +12265,13 @@
       <c r="K427">
         <v>10184.91876184077</v>
       </c>
-    </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N427">
+        <v>6.3236573710831152</v>
+      </c>
+    </row>
+    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B428">
         <v>2001</v>
@@ -11777,10 +12303,13 @@
       <c r="K428">
         <v>10296.726978857821</v>
       </c>
-    </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N428">
+        <v>6.3204788205427205</v>
+      </c>
+    </row>
+    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B429">
         <v>2002</v>
@@ -11812,10 +12341,13 @@
       <c r="K429">
         <v>10445.12034001149</v>
       </c>
-    </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N429">
+        <v>6.456812338674025</v>
+      </c>
+    </row>
+    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B430">
         <v>2003</v>
@@ -11847,10 +12379,13 @@
       <c r="K430">
         <v>10701.342766987476</v>
       </c>
-    </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N430">
+        <v>6.4131914208611764</v>
+      </c>
+    </row>
+    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B431">
         <v>2004</v>
@@ -11882,10 +12417,13 @@
       <c r="K431">
         <v>11141.850161484232</v>
       </c>
-    </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N431">
+        <v>6.265734728956736</v>
+      </c>
+    </row>
+    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B432">
         <v>2005</v>
@@ -11917,10 +12455,13 @@
       <c r="K432">
         <v>11527.92226581421</v>
       </c>
-    </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N432">
+        <v>6.1182897650121628</v>
+      </c>
+    </row>
+    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B433">
         <v>2006</v>
@@ -11952,10 +12493,13 @@
       <c r="K433">
         <v>12009.30317872305</v>
       </c>
-    </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N433">
+        <v>5.8549223794702918</v>
+      </c>
+    </row>
+    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B434">
         <v>2007</v>
@@ -11987,10 +12531,13 @@
       <c r="K434">
         <v>12514.452959054612</v>
       </c>
-    </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N434">
+        <v>5.4468160423189307</v>
+      </c>
+    </row>
+    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B435">
         <v>2008</v>
@@ -12022,10 +12569,13 @@
       <c r="K435">
         <v>12721.673848162025</v>
       </c>
-    </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N435">
+        <v>5.6494509235877644</v>
+      </c>
+    </row>
+    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B436">
         <v>2009</v>
@@ -12057,10 +12607,13 @@
       <c r="K436">
         <v>12536.577839603387</v>
       </c>
-    </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N436">
+        <v>6.2172096712317462</v>
+      </c>
+    </row>
+    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B437">
         <v>2010</v>
@@ -12092,10 +12645,13 @@
       <c r="K437">
         <v>13042.235605344278</v>
       </c>
-    </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N437">
+        <v>6.0675554518165438</v>
+      </c>
+    </row>
+    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B438">
         <v>2011</v>
@@ -12127,10 +12683,13 @@
       <c r="K438">
         <v>13394.348283609508</v>
       </c>
-    </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N438">
+        <v>5.9469175737829048</v>
+      </c>
+    </row>
+    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B439">
         <v>2012</v>
@@ -12159,10 +12718,13 @@
       <c r="K439">
         <v>13682.265121868057</v>
       </c>
-    </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N439">
+        <v>5.9489253435640057</v>
+      </c>
+    </row>
+    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B440">
         <v>2013</v>
@@ -12179,21 +12741,24 @@
       <c r="K440">
         <v>13960.630059871821</v>
       </c>
-    </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N440">
+        <v>5.9690616513914803</v>
+      </c>
+    </row>
+    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B441">
         <v>2014</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>7</v>
       </c>
@@ -12208,7 +12773,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12220,27 +12785,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -12248,13 +12813,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -12262,13 +12827,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -12276,10 +12841,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -12290,13 +12855,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -12318,13 +12883,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -12332,13 +12897,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -12346,7 +12911,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>0</v>
@@ -12360,13 +12925,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -12374,15 +12939,29 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
